--- a/StructureDefinition-cdm-organization-affiliation.xlsx
+++ b/StructureDefinition-cdm-organization-affiliation.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$65</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="351">
   <si>
     <t>Path</t>
   </si>
@@ -257,6 +257,16 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>ingestionBatchId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/ingestion-batch-id}
+</t>
+  </si>
+  <si>
+    <t>The ID generated by an ingestion service. This represents a producer-submitted message collection</t>
+  </si>
+  <si>
     <t>tenantId</t>
   </si>
   <si>
@@ -264,17 +274,20 @@
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
-    <t>ingestionBatchId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/ingestion-batch-id}
+    <t>The ID for either the client or tenant that holds the contract with the data receiver, as recorded by the data receiver</t>
+  </si>
+  <si>
+    <t>The ID for either the client or tenant that holds the contract with the data receiver, as recorded by the data receiver. This ID must be unique to data sent on behalf of that client or tenant within the data receiver systems. The receiver systems should associate this ID to the messages that originate from this client or tenant. This supports traceability, data protection, and data isolation, when appropriate.</t>
+  </si>
+  <si>
+    <t>processClientId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/process-client-id}
 </t>
+  </si>
+  <si>
+    <t>The ID of the client as recorded in the data producer or data integrator source system(s)</t>
   </si>
   <si>
     <t>processOrganization</t>
@@ -284,6 +297,12 @@
 </t>
   </si>
   <si>
+    <t>The organizing entity that owns the process that has produced the data held in the FHIR resource or element</t>
+  </si>
+  <si>
+    <t>The organizing entity that owns the process that has produced the data held in the FHIR resource or element. Example: If an IBM analytic service has been the producer, the process-organization value is IBM.</t>
+  </si>
+  <si>
     <t>processName</t>
   </si>
   <si>
@@ -291,6 +310,12 @@
 </t>
   </si>
   <si>
+    <t>The name of the process or service that has produced the data held in the FHIR resource or element</t>
+  </si>
+  <si>
+    <t>The name of the process or service that has produced the data held in the FHIR resource or element. Example: If an IBM analytic service has been the producer, use the process-name as the name of that analytic service.</t>
+  </si>
+  <si>
     <t>processVersion</t>
   </si>
   <si>
@@ -298,6 +323,9 @@
 </t>
   </si>
   <si>
+    <t>The version of either the process or the service that has produced the data held in the FHIR resource or element</t>
+  </si>
+  <si>
     <t>processType</t>
   </si>
   <si>
@@ -305,6 +333,9 @@
 </t>
   </si>
   <si>
+    <t>The classification type of the process that has produced the data held in either the FHIR resource or element</t>
+  </si>
+  <si>
     <t>processRecordId</t>
   </si>
   <si>
@@ -312,6 +343,9 @@
 </t>
   </si>
   <si>
+    <t>The record ID that the data producer or data integrator uses internally to identify this data</t>
+  </si>
+  <si>
     <t>processTimestamp</t>
   </si>
   <si>
@@ -319,6 +353,19 @@
 </t>
   </si>
   <si>
+    <t>The timestamp when the data was generated within the FHIR resource or element</t>
+  </si>
+  <si>
+    <t>sourceRecordId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/source-record-id}
+</t>
+  </si>
+  <si>
+    <t>The ID for a record that the data producer or data integrator extracted knowledge from to produce the data within the FHIR resource or element</t>
+  </si>
+  <si>
     <t>sourceFileId</t>
   </si>
   <si>
@@ -326,6 +373,19 @@
 </t>
   </si>
   <si>
+    <t>The ID for a file from which the data producer or data integrator extracted knowledge, to produce the data within this FHIR resource or element</t>
+  </si>
+  <si>
+    <t>sourceRecordType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/source-record-type}
+</t>
+  </si>
+  <si>
+    <t>Either the data model type or schema type that generates this FHIR resource</t>
+  </si>
+  <si>
     <t>sourceDataModelVersion</t>
   </si>
   <si>
@@ -333,6 +393,105 @@
 </t>
   </si>
   <si>
+    <t>Version of the source system's data model, used by either the data producer or the data integrator</t>
+  </si>
+  <si>
+    <t>sourceEventTrigger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/source-event-trigger}
+</t>
+  </si>
+  <si>
+    <t>The event that is the catalyst for creating or updating this FHIR resource</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation.meta.extension.id</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation.meta.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation.meta.extension.url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://ibm.com/fhir/cdm/StructureDefinition/source-event-trigger</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation.meta.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v2-0003</t>
+  </si>
+  <si>
+    <t>sourceEventTimestamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/source-event-timestamp}
+</t>
+  </si>
+  <si>
+    <t>Date and time of the source event that triggers either the creation or updating of this FHIR resource</t>
+  </si>
+  <si>
+    <t>insight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/insight}
+</t>
+  </si>
+  <si>
+    <t>References element level insight results pertaining to the data in this resource instance.</t>
+  </si>
+  <si>
     <t>OrganizationAffiliation.meta.versionId</t>
   </si>
   <si>
@@ -374,10 +533,6 @@
     <t>OrganizationAffiliation.meta.source</t>
   </si>
   <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
@@ -450,40 +605,162 @@
     <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/common-tags</t>
   </si>
   <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
     <t>Meta.tag</t>
   </si>
   <si>
-    <t>OrganizationAffiliation.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation.language</t>
+    <t>SourceClassificationTag</t>
+  </si>
+  <si>
+    <t>Identifies the origin of data elements in this FHIR resource, from either primary or secondary source systems</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation.meta.tag.id</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation.meta.tag.extension</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation.meta.tag.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://ibm.com/fhir/cdm/CodeSystem/process-meta-primary-or-secondary</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation.meta.tag.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation.meta.tag.code</t>
   </si>
   <si>
     <t xml:space="preserve">code
 </t>
   </si>
   <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://ibm.com/fhir/cdm/ValueSet/source-classification-values</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation.meta.tag.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation.meta.tag.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation.implicitRules</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation.language</t>
+  </si>
+  <si>
     <t>Language of the resource content</t>
   </si>
   <si>
@@ -560,12 +837,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
@@ -576,6 +847,9 @@
 </t>
   </si>
   <si>
+    <t>Description of the level of the parent within the organinzational hierarchy</t>
+  </si>
+  <si>
     <t>parentHierarchyLevelCode</t>
   </si>
   <si>
@@ -583,6 +857,9 @@
 </t>
   </si>
   <si>
+    <t>Numeric level of the practitioner within the organinzational hierarchy</t>
+  </si>
+  <si>
     <t>childHierarchyLevel</t>
   </si>
   <si>
@@ -590,6 +867,9 @@
 </t>
   </si>
   <si>
+    <t>Description of the level of the child practitioner within the organinzational hierarchy</t>
+  </si>
+  <si>
     <t>childHierarchyLevelCode</t>
   </si>
   <si>
@@ -597,6 +877,9 @@
 </t>
   </si>
   <si>
+    <t>Numeric level of the child practitioner within the organinzational hierarchy</t>
+  </si>
+  <si>
     <t>hierarchyVersionId</t>
   </si>
   <si>
@@ -604,6 +887,9 @@
 </t>
   </si>
   <si>
+    <t>Numeric version of the organinzational hierarchy represented</t>
+  </si>
+  <si>
     <t>hierarchyVersionDate</t>
   </si>
   <si>
@@ -611,6 +897,9 @@
 </t>
   </si>
   <si>
+    <t>Version date of the organinzational hierarchy represented</t>
+  </si>
+  <si>
     <t>OrganizationAffiliation.modifierExtension</t>
   </si>
   <si>
@@ -652,10 +941,6 @@
     <t>OrganizationAffiliation.active</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
     <t>Whether this organization affiliation record is in active use</t>
   </si>
   <si>
@@ -737,10 +1022,6 @@
   </si>
   <si>
     <t>OrganizationAffiliation.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Definition of the role the participatingOrganization plays</t>
@@ -989,7 +1270,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK46"/>
+  <dimension ref="A1:AK65"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -998,7 +1279,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.46484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.94921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="25.55859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1022,7 +1303,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.68359375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.57421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -1702,7 +1983,7 @@
         <v>79</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1779,7 +2060,7 @@
         <v>66</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>38</v>
@@ -1801,13 +2082,13 @@
         <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="L8" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1884,7 +2165,7 @@
         <v>66</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>38</v>
@@ -1906,13 +2187,13 @@
         <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1989,7 +2270,7 @@
         <v>66</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>38</v>
@@ -2011,13 +2292,13 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2094,7 +2375,7 @@
         <v>66</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>38</v>
@@ -2116,13 +2397,13 @@
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2199,7 +2480,7 @@
         <v>66</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>38</v>
@@ -2221,13 +2502,13 @@
         <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2304,7 +2585,7 @@
         <v>66</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>38</v>
@@ -2314,7 +2595,7 @@
         <v>39</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>38</v>
@@ -2326,13 +2607,13 @@
         <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2409,7 +2690,7 @@
         <v>66</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>38</v>
@@ -2419,7 +2700,7 @@
         <v>39</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>38</v>
@@ -2431,13 +2712,13 @@
         <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2514,7 +2795,7 @@
         <v>66</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>38</v>
@@ -2524,7 +2805,7 @@
         <v>39</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>38</v>
@@ -2536,13 +2817,13 @@
         <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2619,7 +2900,7 @@
         <v>66</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>38</v>
@@ -2629,7 +2910,7 @@
         <v>39</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>38</v>
@@ -2641,13 +2922,13 @@
         <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2721,9 +3002,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="C17" t="s" s="2">
         <v>38</v>
       </c>
@@ -2732,7 +3015,7 @@
         <v>39</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>38</v>
@@ -2741,20 +3024,18 @@
         <v>38</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>38</v>
@@ -2803,22 +3084,22 @@
         <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>38</v>
@@ -2826,9 +3107,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>38</v>
       </c>
@@ -2846,20 +3129,18 @@
         <v>38</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>38</v>
@@ -2908,22 +3189,22 @@
         <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>38</v>
@@ -2931,9 +3212,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="C19" t="s" s="2">
         <v>38</v>
       </c>
@@ -2951,20 +3234,18 @@
         <v>38</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>38</v>
@@ -3013,22 +3294,22 @@
         <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>38</v>
@@ -3036,15 +3317,17 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>46</v>
@@ -3056,20 +3339,18 @@
         <v>38</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M20" t="s" s="2">
         <v>121</v>
       </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>38</v>
@@ -3118,7 +3399,7 @@
         <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>39</v>
@@ -3130,10 +3411,10 @@
         <v>38</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>38</v>
@@ -3141,7 +3422,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3152,7 +3433,7 @@
         <v>39</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>38</v>
@@ -3161,20 +3442,18 @@
         <v>38</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>127</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>38</v>
@@ -3199,13 +3478,13 @@
         <v>38</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>38</v>
@@ -3223,22 +3502,22 @@
         <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>38</v>
@@ -3246,7 +3525,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3257,7 +3536,7 @@
         <v>39</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>38</v>
@@ -3266,20 +3545,18 @@
         <v>38</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="K22" t="s" s="2">
-        <v>133</v>
-      </c>
       <c r="L22" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>38</v>
@@ -3304,31 +3581,31 @@
         <v>38</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>39</v>
@@ -3340,7 +3617,7 @@
         <v>38</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>38</v>
@@ -3351,7 +3628,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3359,7 +3636,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>46</v>
@@ -3368,22 +3645,22 @@
         <v>38</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3391,7 +3668,7 @@
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>38</v>
@@ -3433,10 +3710,10 @@
         <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>46</v>
@@ -3445,10 +3722,10 @@
         <v>38</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>38</v>
@@ -3456,7 +3733,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3479,17 +3756,15 @@
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>38</v>
@@ -3514,31 +3789,29 @@
         <v>38</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>39</v>
@@ -3553,7 +3826,7 @@
         <v>59</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>38</v>
@@ -3561,11 +3834,13 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="C25" t="s" s="2">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3584,17 +3859,15 @@
         <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>38</v>
@@ -3619,13 +3892,11 @@
         <v>38</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>38</v>
@@ -3643,7 +3914,7 @@
         <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>39</v>
@@ -3658,7 +3929,7 @@
         <v>59</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>38</v>
@@ -3666,18 +3937,20 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="C26" t="s" s="2">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>38</v>
@@ -3689,17 +3962,15 @@
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>38</v>
@@ -3748,7 +4019,7 @@
         <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>39</v>
@@ -3760,7 +4031,7 @@
         <v>38</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>60</v>
@@ -3771,15 +4042,17 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="C27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>170</v>
+        <v>39</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>40</v>
@@ -3794,13 +4067,13 @@
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3839,17 +4112,19 @@
         <v>38</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB27" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="AC27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>39</v>
@@ -3864,7 +4139,7 @@
         <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>38</v>
@@ -3872,17 +4147,15 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>46</v>
@@ -3894,18 +4167,20 @@
         <v>38</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>38</v>
@@ -3954,22 +4229,22 @@
         <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
@@ -3977,17 +4252,15 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>46</v>
@@ -3999,18 +4272,20 @@
         <v>38</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>38</v>
@@ -4059,22 +4334,22 @@
         <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
@@ -4082,17 +4357,15 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>46</v>
@@ -4104,18 +4377,20 @@
         <v>38</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>38</v>
@@ -4164,22 +4439,22 @@
         <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>38</v>
@@ -4187,11 +4462,9 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>38</v>
       </c>
@@ -4209,18 +4482,20 @@
         <v>38</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>38</v>
@@ -4269,7 +4544,7 @@
         <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>39</v>
@@ -4278,13 +4553,13 @@
         <v>40</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>38</v>
@@ -4292,11 +4567,9 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
         <v>38</v>
       </c>
@@ -4305,7 +4578,7 @@
         <v>39</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>38</v>
@@ -4314,18 +4587,20 @@
         <v>38</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>38</v>
@@ -4350,13 +4625,13 @@
         <v>38</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>38</v>
+        <v>177</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>38</v>
+        <v>179</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>38</v>
@@ -4374,7 +4649,7 @@
         <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>39</v>
@@ -4383,13 +4658,13 @@
         <v>40</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>38</v>
@@ -4397,11 +4672,9 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>38</v>
       </c>
@@ -4410,7 +4683,7 @@
         <v>39</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>38</v>
@@ -4419,18 +4692,20 @@
         <v>38</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>38</v>
@@ -4455,31 +4730,29 @@
         <v>38</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>38</v>
+        <v>185</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="AB33" s="2"/>
       <c r="AC33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>39</v>
@@ -4488,13 +4761,13 @@
         <v>40</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>
@@ -4502,43 +4775,43 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="C34" t="s" s="2">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="I34" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>68</v>
+        <v>173</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>38</v>
       </c>
@@ -4562,13 +4835,13 @@
         <v>38</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>38</v>
+        <v>185</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>38</v>
@@ -4586,7 +4859,7 @@
         <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>39</v>
@@ -4598,10 +4871,10 @@
         <v>38</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>38</v>
@@ -4620,7 +4893,7 @@
         <v>39</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>38</v>
@@ -4629,21 +4902,19 @@
         <v>38</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>192</v>
+        <v>48</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>193</v>
+        <v>62</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>194</v>
+        <v>63</v>
       </c>
       <c r="M35" s="2"/>
-      <c r="N35" t="s" s="2">
-        <v>195</v>
-      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>38</v>
       </c>
@@ -4691,41 +4962,41 @@
         <v>38</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>191</v>
+        <v>64</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>196</v>
+        <v>65</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>197</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>38</v>
@@ -4734,29 +5005,25 @@
         <v>38</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>199</v>
+        <v>68</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>200</v>
+        <v>69</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>201</v>
+        <v>70</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="P36" t="s" s="2">
-        <v>204</v>
-      </c>
+      <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
         <v>38</v>
       </c>
@@ -4788,42 +5055,42 @@
         <v>38</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>198</v>
+        <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>205</v>
+        <v>65</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>206</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4831,7 +5098,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>46</v>
@@ -4846,17 +5113,19 @@
         <v>47</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>208</v>
+        <v>127</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="N37" t="s" s="2">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>38</v>
@@ -4866,7 +5135,7 @@
         <v>38</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>38</v>
+        <v>198</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>38</v>
@@ -4905,7 +5174,7 @@
         <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>39</v>
@@ -4920,15 +5189,15 @@
         <v>59</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>213</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4936,7 +5205,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>46</v>
@@ -4951,15 +5220,17 @@
         <v>47</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>215</v>
+        <v>48</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>38</v>
@@ -5008,7 +5279,7 @@
         <v>38</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>39</v>
@@ -5023,7 +5294,7 @@
         <v>59</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>38</v>
@@ -5031,7 +5302,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5039,7 +5310,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>46</v>
@@ -5054,16 +5325,18 @@
         <v>47</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+      <c r="N39" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>38</v>
       </c>
@@ -5087,13 +5360,11 @@
         <v>38</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>38</v>
+        <v>213</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>38</v>
@@ -5111,7 +5382,7 @@
         <v>38</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>39</v>
@@ -5126,7 +5397,7 @@
         <v>59</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>38</v>
@@ -5134,7 +5405,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5145,7 +5416,7 @@
         <v>39</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>38</v>
@@ -5157,16 +5428,18 @@
         <v>47</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>215</v>
+        <v>48</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>38</v>
       </c>
@@ -5214,13 +5487,13 @@
         <v>38</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>38</v>
@@ -5229,7 +5502,7 @@
         <v>59</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>38</v>
+        <v>221</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>38</v>
@@ -5237,7 +5510,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5248,7 +5521,7 @@
         <v>39</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>38</v>
@@ -5260,16 +5533,20 @@
         <v>47</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="K41" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>38</v>
       </c>
@@ -5293,13 +5570,13 @@
         <v>38</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>230</v>
+        <v>38</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>231</v>
+        <v>38</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>38</v>
@@ -5317,13 +5594,13 @@
         <v>38</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>38</v>
@@ -5332,7 +5609,7 @@
         <v>59</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>38</v>
@@ -5340,7 +5617,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5351,27 +5628,29 @@
         <v>39</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>47</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>227</v>
+        <v>127</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>38</v>
@@ -5396,13 +5675,13 @@
         <v>38</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>236</v>
+        <v>38</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>237</v>
+        <v>38</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>38</v>
@@ -5420,13 +5699,13 @@
         <v>38</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>38</v>
@@ -5435,7 +5714,7 @@
         <v>59</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>238</v>
+        <v>38</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>38</v>
@@ -5443,7 +5722,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5454,7 +5733,7 @@
         <v>39</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>38</v>
@@ -5463,18 +5742,20 @@
         <v>38</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>38</v>
@@ -5499,13 +5780,13 @@
         <v>38</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>38</v>
+        <v>239</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>38</v>
+        <v>240</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>38</v>
+        <v>241</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>38</v>
@@ -5523,13 +5804,13 @@
         <v>38</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>38</v>
@@ -5538,26 +5819,26 @@
         <v>59</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>243</v>
+        <v>38</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>244</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>38</v>
+        <v>244</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>38</v>
@@ -5569,15 +5850,17 @@
         <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>38</v>
@@ -5626,13 +5909,13 @@
         <v>38</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>38</v>
@@ -5641,7 +5924,7 @@
         <v>59</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>38</v>
@@ -5649,11 +5932,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>38</v>
+        <v>252</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -5669,21 +5952,21 @@
         <v>38</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>38</v>
       </c>
@@ -5731,7 +6014,7 @@
         <v>38</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>39</v>
@@ -5743,10 +6026,10 @@
         <v>38</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>255</v>
+        <v>60</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>38</v>
@@ -5754,7 +6037,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5762,10 +6045,10 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>38</v>
@@ -5777,13 +6060,13 @@
         <v>38</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>257</v>
+        <v>68</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>258</v>
+        <v>124</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>259</v>
+        <v>125</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5822,19 +6105,17 @@
         <v>38</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="AB46" s="2"/>
       <c r="AC46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>39</v>
@@ -5846,17 +6127,2002 @@
         <v>38</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI54" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="AJ46" t="s" s="2">
+      <c r="AJ54" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="Q55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="AK46" t="s" s="2">
+      <c r="AK65" t="s" s="2">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK46">
+  <autoFilter ref="A1:AK65">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5866,7 +8132,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI45">
+  <conditionalFormatting sqref="A2:AI64">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-cdm-organization-affiliation.xlsx
+++ b/StructureDefinition-cdm-organization-affiliation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-organization-affiliation.xlsx
+++ b/StructureDefinition-cdm-organization-affiliation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-organization-affiliation.xlsx
+++ b/StructureDefinition-cdm-organization-affiliation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -718,7 +718,7 @@
     <t>SourceClassificationTag</t>
   </si>
   <si>
-    <t>Identifies the origin of data elements in this FHIR resource, from either primary or secondary source systems</t>
+    <t>Identifies the origin of this FHIR resource, from either a source system of record or derived from a process</t>
   </si>
   <si>
     <t>OrganizationAffiliation.meta.tag.id</t>
@@ -742,7 +742,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/CodeSystem/process-meta-primary-or-secondary</t>
+    <t>http://ibm.com/fhir/cdm/CodeSystem/process-meta-source-classification</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/StructureDefinition-cdm-organization-affiliation.xlsx
+++ b/StructureDefinition-cdm-organization-affiliation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-organization-affiliation.xlsx
+++ b/StructureDefinition-cdm-organization-affiliation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="385">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,16 +57,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T17:36:56+00:00</t>
+    <t>2022-01-21T20:46:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>No display for ContactDetail</t>
+    <t>Alvearie Team</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>
@@ -1352,7 +1355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1428,90 +1431,84 @@
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1571,6805 +1568,6805 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AB33" s="2"/>
       <c r="AC33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB46" s="2"/>
       <c r="AC46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Q55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="J55" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P55" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="Q55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AH55" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R58" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R59" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R60" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R61" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U61" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V61" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R62" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U62" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V62" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R63" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U63" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V63" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R64" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U64" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V64" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R65" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U65" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V65" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-cdm-organization-affiliation.xlsx
+++ b/StructureDefinition-cdm-organization-affiliation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>IBM® Health Data Connect organization affiliation with versioned hierarchy levels used to relate parent and child organizations</t>
+    <t>Health Data Connect organization affiliation with versioned hierarchy levels used to relate parent and child organizations</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -400,7 +400,7 @@
     <t>The organizing entity that owns the process that has produced the data held in the FHIR resource or element</t>
   </si>
   <si>
-    <t>The organizing entity that owns the process that has produced the data held in the FHIR resource or element. Example: If an IBM analytic service has been the producer, the process-organization value is IBM.</t>
+    <t>The organizing entity that owns the process that has produced the data held in the FHIR resource or element. Example: If an analytic service has been the producer, the process-organization value should reflect the organaization reponsible for the service.</t>
   </si>
   <si>
     <t>processName</t>
@@ -413,7 +413,7 @@
     <t>The name of the process or service that has produced the data held in the FHIR resource or element</t>
   </si>
   <si>
-    <t>The name of the process or service that has produced the data held in the FHIR resource or element. Example: If an IBM analytic service has been the producer, use the process-name as the name of that analytic service.</t>
+    <t>The name of the process or service that has produced the data held in the FHIR resource or element. Example: If an analytic service has been the producer, use the process-name as the name of that analytic service.</t>
   </si>
   <si>
     <t>processVersion</t>

--- a/StructureDefinition-cdm-organization-affiliation.xlsx
+++ b/StructureDefinition-cdm-organization-affiliation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-organization-affiliation.xlsx
+++ b/StructureDefinition-cdm-organization-affiliation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1528,39 +1528,39 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="45.94921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.55859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.5625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="139.54296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="139.546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.57421875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.578125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="45.46484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="45.46875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="78.58203125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-cdm-organization-affiliation.xlsx
+++ b/StructureDefinition-cdm-organization-affiliation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-organization-affiliation.xlsx
+++ b/StructureDefinition-cdm-organization-affiliation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-organization-affiliation.xlsx
+++ b/StructureDefinition-cdm-organization-affiliation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-organization-affiliation.xlsx
+++ b/StructureDefinition-cdm-organization-affiliation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-organization-affiliation.xlsx
+++ b/StructureDefinition-cdm-organization-affiliation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-organization-affiliation.xlsx
+++ b/StructureDefinition-cdm-organization-affiliation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-organization-affiliation.xlsx
+++ b/StructureDefinition-cdm-organization-affiliation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-organization-affiliation.xlsx
+++ b/StructureDefinition-cdm-organization-affiliation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-organization-affiliation.xlsx
+++ b/StructureDefinition-cdm-organization-affiliation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-organization-affiliation.xlsx
+++ b/StructureDefinition-cdm-organization-affiliation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-organization-affiliation.xlsx
+++ b/StructureDefinition-cdm-organization-affiliation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-organization-affiliation.xlsx
+++ b/StructureDefinition-cdm-organization-affiliation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-organization-affiliation.xlsx
+++ b/StructureDefinition-cdm-organization-affiliation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-organization-affiliation.xlsx
+++ b/StructureDefinition-cdm-organization-affiliation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-organization-affiliation.xlsx
+++ b/StructureDefinition-cdm-organization-affiliation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -262,52 +262,56 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+</t>
+  </si>
+  <si>
+    <t>Metadata about a resource</t>
+  </si>
+  <si>
+    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation.meta.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
-</t>
-  </si>
-  <si>
-    <t>Metadata about a resource</t>
-  </si>
-  <si>
-    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation.meta.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -593,10 +597,6 @@
   </si>
   <si>
     <t>OrganizationAffiliation.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
   </si>
   <si>
     <t>Version specific identifier</t>
@@ -2015,13 +2015,13 @@
         <v>72</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2072,7 +2072,7 @@
         <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>73</v>
@@ -2087,7 +2087,7 @@
         <v>72</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>72</v>
@@ -2095,11 +2095,11 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2118,16 +2118,16 @@
         <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2165,19 +2165,19 @@
         <v>72</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>73</v>
@@ -2189,10 +2189,10 @@
         <v>72</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>72</v>
@@ -2200,10 +2200,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>72</v>
@@ -2225,13 +2225,13 @@
         <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -2282,7 +2282,7 @@
         <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>73</v>
@@ -2294,7 +2294,7 @@
         <v>72</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>72</v>
@@ -2305,10 +2305,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>72</v>
@@ -2330,13 +2330,13 @@
         <v>72</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -2387,7 +2387,7 @@
         <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>73</v>
@@ -2399,7 +2399,7 @@
         <v>72</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>72</v>
@@ -2410,10 +2410,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>72</v>
@@ -2435,13 +2435,13 @@
         <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2492,7 +2492,7 @@
         <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>73</v>
@@ -2504,7 +2504,7 @@
         <v>72</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>72</v>
@@ -2515,10 +2515,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>72</v>
@@ -2540,13 +2540,13 @@
         <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2597,7 +2597,7 @@
         <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>73</v>
@@ -2609,7 +2609,7 @@
         <v>72</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>72</v>
@@ -2620,10 +2620,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>72</v>
@@ -2645,13 +2645,13 @@
         <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2702,7 +2702,7 @@
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>73</v>
@@ -2714,7 +2714,7 @@
         <v>72</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>72</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>72</v>
@@ -2750,13 +2750,13 @@
         <v>72</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2807,7 +2807,7 @@
         <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>73</v>
@@ -2819,7 +2819,7 @@
         <v>72</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>72</v>
@@ -2830,10 +2830,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>72</v>
@@ -2855,13 +2855,13 @@
         <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2912,7 +2912,7 @@
         <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>73</v>
@@ -2924,7 +2924,7 @@
         <v>72</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>72</v>
@@ -2935,10 +2935,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>72</v>
@@ -2960,13 +2960,13 @@
         <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3017,7 +3017,7 @@
         <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>73</v>
@@ -3029,7 +3029,7 @@
         <v>72</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>72</v>
@@ -3040,10 +3040,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>72</v>
@@ -3065,13 +3065,13 @@
         <v>72</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3122,7 +3122,7 @@
         <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>73</v>
@@ -3134,7 +3134,7 @@
         <v>72</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>72</v>
@@ -3145,10 +3145,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>72</v>
@@ -3170,13 +3170,13 @@
         <v>72</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3227,7 +3227,7 @@
         <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>73</v>
@@ -3239,7 +3239,7 @@
         <v>72</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>72</v>
@@ -3250,10 +3250,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>72</v>
@@ -3275,13 +3275,13 @@
         <v>72</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3332,7 +3332,7 @@
         <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>73</v>
@@ -3344,7 +3344,7 @@
         <v>72</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>72</v>
@@ -3355,10 +3355,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>72</v>
@@ -3380,13 +3380,13 @@
         <v>72</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3437,7 +3437,7 @@
         <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>73</v>
@@ -3449,7 +3449,7 @@
         <v>72</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>72</v>
@@ -3460,10 +3460,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>72</v>
@@ -3485,13 +3485,13 @@
         <v>72</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3542,7 +3542,7 @@
         <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>73</v>
@@ -3554,7 +3554,7 @@
         <v>72</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>72</v>
@@ -3565,10 +3565,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>72</v>
@@ -3590,13 +3590,13 @@
         <v>72</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3647,7 +3647,7 @@
         <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>73</v>
@@ -3659,7 +3659,7 @@
         <v>72</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>72</v>
@@ -3670,7 +3670,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3693,13 +3693,13 @@
         <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3750,7 +3750,7 @@
         <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>73</v>
@@ -3765,7 +3765,7 @@
         <v>72</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>72</v>
@@ -3773,7 +3773,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3796,13 +3796,13 @@
         <v>72</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3841,19 +3841,19 @@
         <v>72</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>73</v>
@@ -3865,7 +3865,7 @@
         <v>72</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>72</v>
@@ -3876,7 +3876,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3899,16 +3899,16 @@
         <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>72</v>
@@ -3958,7 +3958,7 @@
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>80</v>
@@ -3981,7 +3981,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4004,13 +4004,13 @@
         <v>72</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4049,17 +4049,17 @@
         <v>72</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>73</v>
@@ -4082,10 +4082,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>72</v>
@@ -4107,13 +4107,13 @@
         <v>72</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4140,11 +4140,11 @@
         <v>72</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>72</v>
@@ -4162,7 +4162,7 @@
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>73</v>
@@ -4185,10 +4185,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>72</v>
@@ -4210,13 +4210,13 @@
         <v>72</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4267,7 +4267,7 @@
         <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>73</v>
@@ -4279,7 +4279,7 @@
         <v>72</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>72</v>
@@ -4290,10 +4290,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>72</v>
@@ -4315,13 +4315,13 @@
         <v>72</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4372,7 +4372,7 @@
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>73</v>
@@ -4384,7 +4384,7 @@
         <v>72</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>72</v>
@@ -4395,7 +4395,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4418,7 +4418,7 @@
         <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>184</v>
+        <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>185</v>
@@ -4628,7 +4628,7 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>196</v>
@@ -4978,7 +4978,7 @@
         <v>72</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="X33" t="s" s="2">
         <v>219</v>
@@ -4997,7 +4997,7 @@
         <v>72</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>222</v>
@@ -5083,7 +5083,7 @@
         <v>72</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="X34" t="s" s="2">
         <v>219</v>
@@ -5153,13 +5153,13 @@
         <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5210,7 +5210,7 @@
         <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>73</v>
@@ -5225,7 +5225,7 @@
         <v>72</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>72</v>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5256,16 +5256,16 @@
         <v>72</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5303,19 +5303,19 @@
         <v>72</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>73</v>
@@ -5327,10 +5327,10 @@
         <v>72</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>72</v>
@@ -5361,7 +5361,7 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>228</v>
@@ -5468,7 +5468,7 @@
         <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>236</v>
@@ -5676,7 +5676,7 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>251</v>
@@ -5888,7 +5888,7 @@
         <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>265</v>
@@ -6308,13 +6308,13 @@
         <v>72</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6353,14 +6353,14 @@
         <v>72</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AB46" s="2"/>
       <c r="AC46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE46" t="s" s="2">
         <v>294</v>
@@ -6375,7 +6375,7 @@
         <v>72</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>72</v>
@@ -6480,7 +6480,7 @@
         <v>92</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>72</v>
@@ -6585,7 +6585,7 @@
         <v>92</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>72</v>
@@ -6690,7 +6690,7 @@
         <v>92</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>72</v>
@@ -6795,7 +6795,7 @@
         <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>72</v>
@@ -6900,7 +6900,7 @@
         <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>72</v>
@@ -7005,7 +7005,7 @@
         <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>72</v>
@@ -7020,7 +7020,7 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7039,7 +7039,7 @@
         <v>72</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>314</v>
@@ -7048,7 +7048,7 @@
         <v>315</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>316</v>
@@ -7112,7 +7112,7 @@
         <v>72</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>94</v>
@@ -7774,7 +7774,7 @@
         <v>81</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>353</v>
@@ -7807,7 +7807,7 @@
         <v>72</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="X60" t="s" s="2">
         <v>355</v>
@@ -7877,7 +7877,7 @@
         <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>359</v>
@@ -8363,7 +8363,7 @@
         <v>93</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>72</v>

--- a/StructureDefinition-cdm-organization-affiliation.xlsx
+++ b/StructureDefinition-cdm-organization-affiliation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="384">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/cdm-organization-affiliation</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/cdm-organization-affiliation</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>7.0.0</t>
+    <t>8.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:11:15+00:00</t>
+    <t>2022-11-10T16:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Alvearie Team</t>
+    <t>LinuxForHealth Team</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Health Data Connect organization affiliation with versioned hierarchy levels used to relate parent and child organizations</t>
+    <t>LinuxForHealth CDM organization affiliation with versioned hierarchy levels used to relate parent and child organizations</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -244,10 +244,6 @@
   </si>
   <si>
     <t>Defines an affiliation/assotiation/relationship between 2 distinct oganizations, that is not a part-of relationship/sub-division relationship.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Role</t>
@@ -281,7 +277,7 @@
     <t>OrganizationAffiliation.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+    <t xml:space="preserve">Meta {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-meta}
 </t>
   </si>
   <si>
@@ -364,7 +360,7 @@
     <t>ingestionBatchId</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/ingestion-batch-id}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/ingestion-batch-id}
 </t>
   </si>
   <si>
@@ -374,7 +370,7 @@
     <t>tenantId</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/tenant-id}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/tenant-id}
 </t>
   </si>
   <si>
@@ -387,7 +383,7 @@
     <t>processClientId</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/process-client-id}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-client-id}
 </t>
   </si>
   <si>
@@ -397,7 +393,7 @@
     <t>processOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/process-organization}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-organization}
 </t>
   </si>
   <si>
@@ -410,7 +406,7 @@
     <t>processName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/process-name}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-name}
 </t>
   </si>
   <si>
@@ -423,7 +419,7 @@
     <t>processVersion</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/process-version}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-version}
 </t>
   </si>
   <si>
@@ -433,7 +429,7 @@
     <t>processType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/process-type}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-type}
 </t>
   </si>
   <si>
@@ -443,7 +439,7 @@
     <t>processRecordId</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/process-record-id}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-record-id}
 </t>
   </si>
   <si>
@@ -453,7 +449,7 @@
     <t>processTimestamp</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/process-timestamp}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-timestamp}
 </t>
   </si>
   <si>
@@ -463,7 +459,7 @@
     <t>sourceRecordId</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/source-record-id}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/source-record-id}
 </t>
   </si>
   <si>
@@ -473,7 +469,7 @@
     <t>sourceFileId</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/source-file-id}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/source-file-id}
 </t>
   </si>
   <si>
@@ -483,7 +479,7 @@
     <t>sourceRecordType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/source-record-type}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/source-record-type}
 </t>
   </si>
   <si>
@@ -493,7 +489,7 @@
     <t>sourceDataModelVersion</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/source-data-model-version}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/source-data-model-version}
 </t>
   </si>
   <si>
@@ -503,7 +499,7 @@
     <t>sourceEventTrigger</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/source-event-trigger}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/source-event-trigger}
 </t>
   </si>
   <si>
@@ -538,7 +534,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/source-event-trigger</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/source-event-trigger</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -579,7 +575,7 @@
     <t>sourceEventTimestamp</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/source-event-timestamp}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/source-event-timestamp}
 </t>
   </si>
   <si>
@@ -589,7 +585,7 @@
     <t>insight</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/insight}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/insight}
 </t>
   </si>
   <si>
@@ -745,7 +741,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/CodeSystem/process-meta-source-classification</t>
+    <t>http://linuxforhealth.org/fhir/cdm/CodeSystem/process-meta-source-classification</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -791,7 +787,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/source-classification-values</t>
+    <t>http://linuxforhealth.org/fhir/cdm/ValueSet/source-classification-values</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -943,7 +939,7 @@
     <t>parentHierarchyLevel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/parent-organization-hierarchy-level-description}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/parent-organization-hierarchy-level-description}
 </t>
   </si>
   <si>
@@ -953,7 +949,7 @@
     <t>parentHierarchyLevelCode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/parent-organization-hierarchy-level-code}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/parent-organization-hierarchy-level-code}
 </t>
   </si>
   <si>
@@ -963,7 +959,7 @@
     <t>childHierarchyLevel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/child-organization-hierarchy-level-description}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/child-organization-hierarchy-level-description}
 </t>
   </si>
   <si>
@@ -973,7 +969,7 @@
     <t>childHierarchyLevelCode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/child-organization-hierarchy-level-code}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/child-organization-hierarchy-level-code}
 </t>
   </si>
   <si>
@@ -983,7 +979,7 @@
     <t>hierarchyVersionId</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/hierarchy-version-id}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/hierarchy-version-id}
 </t>
   </si>
   <si>
@@ -993,7 +989,7 @@
     <t>hierarchyVersionDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/hierarchy-version-date}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/hierarchy-version-date}
 </t>
   </si>
   <si>
@@ -1551,7 +1547,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.578125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="65.9921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1773,10 +1769,10 @@
         <v>72</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>72</v>
@@ -1784,7 +1780,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1795,28 +1791,28 @@
         <v>73</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1866,13 +1862,13 @@
         <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>72</v>
@@ -1889,7 +1885,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1900,7 +1896,7 @@
         <v>73</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>72</v>
@@ -1912,13 +1908,13 @@
         <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1969,22 +1965,22 @@
         <v>72</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AF4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH4" t="s" s="2">
+      <c r="AI4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AI4" t="s" s="2">
+      <c r="AJ4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>72</v>
@@ -1992,7 +1988,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2003,7 +1999,7 @@
         <v>73</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>72</v>
@@ -2015,13 +2011,13 @@
         <v>72</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2072,22 +2068,22 @@
         <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>72</v>
@@ -2095,11 +2091,11 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2118,16 +2114,16 @@
         <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2165,19 +2161,19 @@
         <v>72</v>
       </c>
       <c r="AA6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AB6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="AB6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="AC6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD6" t="s" s="2">
+      <c r="AE6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>73</v>
@@ -2189,10 +2185,10 @@
         <v>72</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>72</v>
@@ -2200,10 +2196,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>72</v>
@@ -2213,7 +2209,7 @@
         <v>73</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>72</v>
@@ -2225,13 +2221,13 @@
         <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="K7" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -2282,7 +2278,7 @@
         <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>73</v>
@@ -2294,7 +2290,7 @@
         <v>72</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>72</v>
@@ -2305,10 +2301,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>72</v>
@@ -2318,7 +2314,7 @@
         <v>73</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>72</v>
@@ -2330,13 +2326,13 @@
         <v>72</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -2387,7 +2383,7 @@
         <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>73</v>
@@ -2399,7 +2395,7 @@
         <v>72</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>72</v>
@@ -2410,10 +2406,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>72</v>
@@ -2423,7 +2419,7 @@
         <v>73</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>72</v>
@@ -2435,13 +2431,13 @@
         <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K9" t="s" s="2">
-        <v>121</v>
-      </c>
       <c r="L9" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2492,7 +2488,7 @@
         <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>73</v>
@@ -2504,7 +2500,7 @@
         <v>72</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>72</v>
@@ -2515,10 +2511,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>72</v>
@@ -2528,7 +2524,7 @@
         <v>73</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>72</v>
@@ -2540,13 +2536,13 @@
         <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2597,7 +2593,7 @@
         <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>73</v>
@@ -2609,7 +2605,7 @@
         <v>72</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>72</v>
@@ -2620,10 +2616,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>72</v>
@@ -2633,7 +2629,7 @@
         <v>73</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>72</v>
@@ -2645,13 +2641,13 @@
         <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2702,7 +2698,7 @@
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>73</v>
@@ -2714,7 +2710,7 @@
         <v>72</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>72</v>
@@ -2725,10 +2721,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>72</v>
@@ -2738,7 +2734,7 @@
         <v>73</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>72</v>
@@ -2750,13 +2746,13 @@
         <v>72</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>132</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2807,7 +2803,7 @@
         <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>73</v>
@@ -2819,7 +2815,7 @@
         <v>72</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>72</v>
@@ -2830,10 +2826,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>72</v>
@@ -2843,7 +2839,7 @@
         <v>73</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>72</v>
@@ -2855,13 +2851,13 @@
         <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="L13" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2912,7 +2908,7 @@
         <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>73</v>
@@ -2924,7 +2920,7 @@
         <v>72</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>72</v>
@@ -2935,10 +2931,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>72</v>
@@ -2960,13 +2956,13 @@
         <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K14" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="L14" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3017,7 +3013,7 @@
         <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>73</v>
@@ -3029,7 +3025,7 @@
         <v>72</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>72</v>
@@ -3040,10 +3036,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>72</v>
@@ -3053,7 +3049,7 @@
         <v>73</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>72</v>
@@ -3065,13 +3061,13 @@
         <v>72</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K15" t="s" s="2">
-        <v>141</v>
-      </c>
       <c r="L15" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3122,7 +3118,7 @@
         <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>73</v>
@@ -3134,7 +3130,7 @@
         <v>72</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>72</v>
@@ -3145,10 +3141,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>72</v>
@@ -3170,13 +3166,13 @@
         <v>72</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K16" t="s" s="2">
-        <v>144</v>
-      </c>
       <c r="L16" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3227,7 +3223,7 @@
         <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>73</v>
@@ -3239,7 +3235,7 @@
         <v>72</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>72</v>
@@ -3250,10 +3246,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>72</v>
@@ -3275,13 +3271,13 @@
         <v>72</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K17" t="s" s="2">
-        <v>147</v>
-      </c>
       <c r="L17" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3332,7 +3328,7 @@
         <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>73</v>
@@ -3344,7 +3340,7 @@
         <v>72</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>72</v>
@@ -3355,10 +3351,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>72</v>
@@ -3368,7 +3364,7 @@
         <v>73</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>72</v>
@@ -3380,13 +3376,13 @@
         <v>72</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K18" t="s" s="2">
-        <v>150</v>
-      </c>
       <c r="L18" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3437,7 +3433,7 @@
         <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>73</v>
@@ -3449,7 +3445,7 @@
         <v>72</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>72</v>
@@ -3460,10 +3456,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>72</v>
@@ -3473,7 +3469,7 @@
         <v>73</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>72</v>
@@ -3485,13 +3481,13 @@
         <v>72</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="K19" t="s" s="2">
-        <v>153</v>
-      </c>
       <c r="L19" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3542,7 +3538,7 @@
         <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>73</v>
@@ -3554,7 +3550,7 @@
         <v>72</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>72</v>
@@ -3565,10 +3561,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>72</v>
@@ -3578,7 +3574,7 @@
         <v>73</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>72</v>
@@ -3590,13 +3586,13 @@
         <v>72</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K20" t="s" s="2">
-        <v>156</v>
-      </c>
       <c r="L20" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3647,7 +3643,7 @@
         <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>73</v>
@@ -3659,7 +3655,7 @@
         <v>72</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>72</v>
@@ -3670,7 +3666,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3681,7 +3677,7 @@
         <v>73</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>72</v>
@@ -3693,13 +3689,13 @@
         <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3750,22 +3746,22 @@
         <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>72</v>
@@ -3773,7 +3769,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3796,13 +3792,13 @@
         <v>72</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3841,19 +3837,19 @@
         <v>72</v>
       </c>
       <c r="AA22" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AB22" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="AB22" t="s" s="2">
+      <c r="AC22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD22" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="AC22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD22" t="s" s="2">
+      <c r="AE22" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>73</v>
@@ -3865,7 +3861,7 @@
         <v>72</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>72</v>
@@ -3876,7 +3872,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3884,10 +3880,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>72</v>
@@ -3899,16 +3895,16 @@
         <v>72</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3916,55 +3912,55 @@
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="R23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>167</v>
-      </c>
       <c r="AF23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>72</v>
@@ -3973,7 +3969,7 @@
         <v>72</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>72</v>
@@ -3981,7 +3977,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3992,7 +3988,7 @@
         <v>73</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>72</v>
@@ -4004,13 +4000,13 @@
         <v>72</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4049,32 +4045,32 @@
         <v>72</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD24" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AE24" t="s" s="2">
-        <v>174</v>
-      </c>
       <c r="AF24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>72</v>
@@ -4082,10 +4078,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>72</v>
@@ -4095,7 +4091,7 @@
         <v>73</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>72</v>
@@ -4107,13 +4103,13 @@
         <v>72</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4140,11 +4136,11 @@
         <v>72</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>72</v>
@@ -4162,22 +4158,22 @@
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>72</v>
@@ -4185,10 +4181,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>72</v>
@@ -4198,7 +4194,7 @@
         <v>73</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>72</v>
@@ -4210,13 +4206,13 @@
         <v>72</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="K26" t="s" s="2">
-        <v>180</v>
-      </c>
       <c r="L26" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4267,7 +4263,7 @@
         <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>73</v>
@@ -4279,7 +4275,7 @@
         <v>72</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>72</v>
@@ -4290,10 +4286,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>72</v>
@@ -4315,13 +4311,13 @@
         <v>72</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="K27" t="s" s="2">
-        <v>183</v>
-      </c>
       <c r="L27" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4372,7 +4368,7 @@
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>73</v>
@@ -4384,7 +4380,7 @@
         <v>72</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>72</v>
@@ -4395,7 +4391,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4406,28 +4402,28 @@
         <v>73</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I28" t="s" s="2">
+      <c r="J28" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="J28" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="K28" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4477,19 +4473,19 @@
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>72</v>
@@ -4500,7 +4496,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4511,28 +4507,28 @@
         <v>73</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J29" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4582,19 +4578,19 @@
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>72</v>
@@ -4605,7 +4601,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4616,28 +4612,28 @@
         <v>73</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J30" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4687,19 +4683,19 @@
         <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>72</v>
@@ -4710,7 +4706,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4718,31 +4714,31 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J31" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4792,7 +4788,7 @@
         <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>73</v>
@@ -4804,7 +4800,7 @@
         <v>72</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>72</v>
@@ -4815,7 +4811,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4835,19 +4831,19 @@
         <v>72</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4873,31 +4869,31 @@
         <v>72</v>
       </c>
       <c r="W32" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="X32" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="X32" t="s" s="2">
+      <c r="Y32" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="Y32" t="s" s="2">
+      <c r="Z32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>73</v>
@@ -4909,7 +4905,7 @@
         <v>72</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>72</v>
@@ -4920,7 +4916,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4940,19 +4936,19 @@
         <v>72</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4978,29 +4974,29 @@
         <v>72</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="Y33" t="s" s="2">
+      <c r="Z33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA33" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AB33" s="2"/>
       <c r="AC33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>73</v>
@@ -5012,7 +5008,7 @@
         <v>72</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>72</v>
@@ -5023,10 +5019,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>72</v>
@@ -5036,28 +5032,28 @@
         <v>73</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5083,14 +5079,14 @@
         <v>72</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>220</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>72</v>
       </c>
@@ -5107,7 +5103,7 @@
         <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>73</v>
@@ -5119,7 +5115,7 @@
         <v>72</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>72</v>
@@ -5130,7 +5126,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5141,7 +5137,7 @@
         <v>73</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>72</v>
@@ -5153,13 +5149,13 @@
         <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5210,22 +5206,22 @@
         <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>72</v>
@@ -5233,11 +5229,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5256,16 +5252,16 @@
         <v>72</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5303,19 +5299,19 @@
         <v>72</v>
       </c>
       <c r="AA36" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AB36" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="AB36" t="s" s="2">
+      <c r="AC36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD36" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="AC36" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD36" t="s" s="2">
+      <c r="AE36" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>73</v>
@@ -5327,10 +5323,10 @@
         <v>72</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>72</v>
@@ -5338,7 +5334,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5346,34 +5342,34 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>72</v>
@@ -5383,61 +5379,61 @@
         <v>72</v>
       </c>
       <c r="R37" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE37" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="S37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE37" t="s" s="2">
+      <c r="AF37" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>72</v>
@@ -5445,7 +5441,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5456,28 +5452,28 @@
         <v>73</v>
       </c>
       <c r="F38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J38" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5527,22 +5523,22 @@
         <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>72</v>
@@ -5550,7 +5546,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5561,29 +5557,29 @@
         <v>73</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J39" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>72</v>
@@ -5608,44 +5604,44 @@
         <v>72</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE39" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE39" t="s" s="2">
+      <c r="AF39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>72</v>
@@ -5653,7 +5649,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5664,29 +5660,29 @@
         <v>73</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J40" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>72</v>
@@ -5735,22 +5731,22 @@
         <v>72</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>72</v>
@@ -5758,7 +5754,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5769,31 +5765,31 @@
         <v>73</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J41" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>72</v>
@@ -5842,22 +5838,22 @@
         <v>72</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>72</v>
@@ -5865,7 +5861,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5876,28 +5872,28 @@
         <v>73</v>
       </c>
       <c r="F42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H42" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="I42" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5947,19 +5943,19 @@
         <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>72</v>
@@ -5970,7 +5966,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5981,7 +5977,7 @@
         <v>73</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>72</v>
@@ -5993,16 +5989,16 @@
         <v>72</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6028,43 +6024,43 @@
         <v>72</v>
       </c>
       <c r="W43" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="X43" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="X43" t="s" s="2">
+      <c r="Y43" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="Y43" t="s" s="2">
+      <c r="Z43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE43" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="AF43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>72</v>
@@ -6075,18 +6071,18 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>72</v>
@@ -6098,16 +6094,16 @@
         <v>72</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6157,22 +6153,22 @@
         <v>72</v>
       </c>
       <c r="AE44" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>72</v>
@@ -6180,11 +6176,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6203,16 +6199,16 @@
         <v>72</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6262,7 +6258,7 @@
         <v>72</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>73</v>
@@ -6277,7 +6273,7 @@
         <v>72</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>72</v>
@@ -6285,7 +6281,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6293,7 +6289,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>74</v>
@@ -6308,13 +6304,13 @@
         <v>72</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6353,17 +6349,17 @@
         <v>72</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AB46" s="2"/>
       <c r="AC46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>73</v>
@@ -6375,7 +6371,7 @@
         <v>72</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>72</v>
@@ -6386,20 +6382,20 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>72</v>
@@ -6411,13 +6407,13 @@
         <v>72</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="K47" t="s" s="2">
-        <v>297</v>
-      </c>
       <c r="L47" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6468,7 +6464,7 @@
         <v>72</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>73</v>
@@ -6477,10 +6473,10 @@
         <v>74</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>72</v>
@@ -6491,20 +6487,20 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>72</v>
@@ -6516,13 +6512,13 @@
         <v>72</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="K48" t="s" s="2">
-        <v>300</v>
-      </c>
       <c r="L48" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6573,7 +6569,7 @@
         <v>72</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>73</v>
@@ -6582,10 +6578,10 @@
         <v>74</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>72</v>
@@ -6596,20 +6592,20 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>72</v>
@@ -6621,13 +6617,13 @@
         <v>72</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="K49" t="s" s="2">
-        <v>303</v>
-      </c>
       <c r="L49" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6678,7 +6674,7 @@
         <v>72</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>73</v>
@@ -6687,10 +6683,10 @@
         <v>74</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>72</v>
@@ -6701,20 +6697,20 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>72</v>
@@ -6726,13 +6722,13 @@
         <v>72</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="K50" t="s" s="2">
-        <v>306</v>
-      </c>
       <c r="L50" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6783,7 +6779,7 @@
         <v>72</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>73</v>
@@ -6792,10 +6788,10 @@
         <v>74</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>72</v>
@@ -6806,10 +6802,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>72</v>
@@ -6819,7 +6815,7 @@
         <v>73</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>72</v>
@@ -6831,13 +6827,13 @@
         <v>72</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="K51" t="s" s="2">
-        <v>309</v>
-      </c>
       <c r="L51" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6888,7 +6884,7 @@
         <v>72</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>73</v>
@@ -6897,10 +6893,10 @@
         <v>74</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>72</v>
@@ -6911,10 +6907,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>72</v>
@@ -6924,7 +6920,7 @@
         <v>73</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>72</v>
@@ -6936,13 +6932,13 @@
         <v>72</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="K52" t="s" s="2">
-        <v>312</v>
-      </c>
       <c r="L52" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6993,7 +6989,7 @@
         <v>72</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>73</v>
@@ -7002,10 +6998,10 @@
         <v>74</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>72</v>
@@ -7016,11 +7012,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7033,25 +7029,25 @@
         <v>72</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>72</v>
@@ -7100,7 +7096,7 @@
         <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>73</v>
@@ -7112,10 +7108,10 @@
         <v>72</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>72</v>
@@ -7123,7 +7119,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7143,20 +7139,20 @@
         <v>72</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>72</v>
@@ -7205,7 +7201,7 @@
         <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>73</v>
@@ -7217,18 +7213,18 @@
         <v>72</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>324</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7239,105 +7235,105 @@
         <v>73</v>
       </c>
       <c r="F55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J55" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P55" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="O55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P55" t="s" s="2">
+      <c r="Q55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="Q55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
+      <c r="AK55" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>332</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7348,29 +7344,29 @@
         <v>73</v>
       </c>
       <c r="F56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J56" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>72</v>
@@ -7419,30 +7415,30 @@
         <v>72</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>339</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7450,28 +7446,28 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I57" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J57" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7522,22 +7518,22 @@
         <v>72</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>72</v>
@@ -7545,7 +7541,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7553,28 +7549,28 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I58" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="J58" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7625,22 +7621,22 @@
         <v>72</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>72</v>
@@ -7648,7 +7644,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7668,16 +7664,16 @@
         <v>72</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7728,7 +7724,7 @@
         <v>72</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>73</v>
@@ -7740,7 +7736,7 @@
         <v>72</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>72</v>
@@ -7751,7 +7747,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7771,16 +7767,16 @@
         <v>72</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7807,14 +7803,14 @@
         <v>72</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="Y60" t="s" s="2">
-        <v>356</v>
-      </c>
       <c r="Z60" t="s" s="2">
         <v>72</v>
       </c>
@@ -7831,7 +7827,7 @@
         <v>72</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>73</v>
@@ -7843,10 +7839,10 @@
         <v>72</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>72</v>
@@ -7854,7 +7850,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7874,16 +7870,16 @@
         <v>72</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7910,14 +7906,14 @@
         <v>72</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="Y61" t="s" s="2">
-        <v>362</v>
-      </c>
       <c r="Z61" t="s" s="2">
         <v>72</v>
       </c>
@@ -7934,7 +7930,7 @@
         <v>72</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>73</v>
@@ -7946,10 +7942,10 @@
         <v>72</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>72</v>
@@ -7957,7 +7953,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7977,16 +7973,16 @@
         <v>72</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8037,7 +8033,7 @@
         <v>72</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>73</v>
@@ -8049,18 +8045,18 @@
         <v>72</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>369</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8083,13 +8079,13 @@
         <v>72</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8140,7 +8136,7 @@
         <v>72</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>73</v>
@@ -8152,10 +8148,10 @@
         <v>72</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>72</v>
@@ -8163,7 +8159,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8183,20 +8179,20 @@
         <v>72</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>72</v>
@@ -8245,7 +8241,7 @@
         <v>72</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>73</v>
@@ -8257,10 +8253,10 @@
         <v>72</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>72</v>
@@ -8268,7 +8264,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8291,13 +8287,13 @@
         <v>72</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8348,7 +8344,7 @@
         <v>72</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>73</v>
@@ -8360,10 +8356,10 @@
         <v>72</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>72</v>
